--- a/data/trans_dic/IP26C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP26C_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 12,2</t>
+          <t>3,15; 11,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,88; 23,92</t>
+          <t>10,83; 23,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 14,68</t>
+          <t>3,08; 14,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,23; 25,99</t>
+          <t>7,35; 23,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,15; 20,15</t>
+          <t>8,13; 20,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,99; 18,73</t>
+          <t>7,11; 18,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 16,29</t>
+          <t>4,24; 16,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 18,25</t>
+          <t>3,7; 17,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,99; 14,53</t>
+          <t>7,04; 14,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,15; 19,31</t>
+          <t>10,63; 19,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 12,29</t>
+          <t>4,9; 12,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,41; 18,06</t>
+          <t>7,39; 18,37</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,55; 12,05</t>
+          <t>7,85; 12,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,09; 12,33</t>
+          <t>8,25; 12,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,71; 12,25</t>
+          <t>7,7; 12,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,2; 13,01</t>
+          <t>8,2; 13,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,17; 14,13</t>
+          <t>9,07; 14,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,84; 13,55</t>
+          <t>9,06; 13,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 11,91</t>
+          <t>7,38; 11,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 12,98</t>
+          <t>7,82; 12,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,95; 12,35</t>
+          <t>8,84; 12,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 12,49</t>
+          <t>9,15; 12,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,06; 11,21</t>
+          <t>8,15; 11,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 12,3</t>
+          <t>8,6; 12,17</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 14,51</t>
+          <t>6,88; 14,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 14,5</t>
+          <t>6,91; 14,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,94; 12,81</t>
+          <t>6,15; 13,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,29; 16,69</t>
+          <t>8,75; 17,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 16,13</t>
+          <t>7,34; 15,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 11,44</t>
+          <t>4,42; 11,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,29; 13,87</t>
+          <t>6,29; 13,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 12,75</t>
+          <t>5,15; 12,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,01; 13,45</t>
+          <t>8,15; 13,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,54; 11,34</t>
+          <t>6,35; 11,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,01; 12,02</t>
+          <t>6,87; 12,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,88; 13,8</t>
+          <t>7,8; 13,38</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,92; 11,18</t>
+          <t>7,8; 11,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,18; 12,91</t>
+          <t>9,23; 12,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,57; 11,08</t>
+          <t>7,52; 11,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,34; 13,41</t>
+          <t>9,18; 13,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,84; 13,83</t>
+          <t>9,68; 13,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,47</t>
+          <t>8,55; 12,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,54</t>
+          <t>7,72; 11,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,65</t>
+          <t>7,72; 11,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,21; 11,9</t>
+          <t>9,14; 11,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,33; 12,06</t>
+          <t>9,39; 12,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 10,78</t>
+          <t>8,12; 10,74</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,08; 11,93</t>
+          <t>9,08; 12,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP26C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP26C_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,07%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>8,32; 20,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>7,24; 18,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,01; 15,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,69; 14,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,09; 12,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,13; 23,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,12; 14,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>7,63; 23,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>6,91; 14,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>10,47; 18,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,51; 12,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>6,74; 17,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>9,81%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 11,96</t>
+          <t>9,3; 14,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,83; 23,76</t>
+          <t>8,84; 13,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 14,77</t>
+          <t>7,38; 11,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 23,95</t>
+          <t>7,07; 11,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,13; 20,23</t>
+          <t>7,69; 12,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,11; 18,63</t>
+          <t>8,12; 12,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 16,0</t>
+          <t>7,69; 12,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 17,04</t>
+          <t>7,9; 12,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 14,56</t>
+          <t>8,94; 12,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,63; 19,17</t>
+          <t>9,13; 12,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,9; 12,78</t>
+          <t>8,15; 11,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,39; 18,37</t>
+          <t>8,03; 11,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>10,22%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 12,05</t>
+          <t>7,51; 15,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,57</t>
+          <t>4,14; 10,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 12,29</t>
+          <t>6,09; 13,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,2; 13,34</t>
+          <t>5,34; 12,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,07; 14,16</t>
+          <t>6,56; 14,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,06; 13,77</t>
+          <t>6,92; 14,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 11,75</t>
+          <t>6,23; 12,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,82; 12,47</t>
+          <t>7,93; 16,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,84; 12,25</t>
+          <t>8,03; 13,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,15; 12,61</t>
+          <t>6,62; 11,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,15; 11,16</t>
+          <t>6,96; 12,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,6; 12,17</t>
+          <t>7,61; 13,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>10,01%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,88; 14,13</t>
+          <t>9,7; 13,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 14,64</t>
+          <t>8,56; 12,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 13,34</t>
+          <t>7,59; 11,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 17,28</t>
+          <t>6,99; 10,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,34; 15,34</t>
+          <t>7,86; 11,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 11,56</t>
+          <t>9,17; 12,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,29; 13,77</t>
+          <t>7,64; 11,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 12,9</t>
+          <t>8,86; 12,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,44</t>
+          <t>9,28; 11,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 11,25</t>
+          <t>9,38; 12,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 12,04</t>
+          <t>8,16; 10,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,8; 13,38</t>
+          <t>8,69; 11,49</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>9,43%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>10,91%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9,3%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>11,33%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>11,62%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>10,41%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>9,4%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>9,46%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>10,5%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>10,67%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>9,35%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>10,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>7,8; 11,22</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>9,23; 12,9</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>7,52; 11,1</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>9,18; 13,48</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>9,68; 13,53</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>8,55; 12,68</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>7,72; 11,43</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>7,72; 11,47</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>9,14; 11,82</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>9,39; 12,21</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>8,12; 10,74</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>9,08; 12,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
